--- a/CLEAN_Crimes_Against_Persons_Offenses_Offense_Category_by_Location_2020.xlsx
+++ b/CLEAN_Crimes_Against_Persons_Offenses_Offense_Category_by_Location_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley Gregory\Documents\College Windows\Capitol Technology University\Semester 4 Summer 2022\Term 2\MBA 515 A21 WEB Applied Stats &amp; Vis for Analytics\Week 4\Week 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a26666a278e90bf6/Documents/GitHub/mba515/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38528EEE-A418-4C40-8E6C-C2DC2855C2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{38528EEE-A418-4C40-8E6C-C2DC2855C2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2168AE89-9D40-499C-A9C8-C5E9553024B6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="1560" windowWidth="11970" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location1" sheetId="1" r:id="rId1"/>
@@ -539,10 +539,17 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
